--- a/Testdata/UtilityOutcome_ECON_Data_Testing.xlsx
+++ b/Testdata/UtilityOutcome_ECON_Data_Testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857D04CE-56A8-4205-B0CD-CF06F17DBCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BE2B1A-BCF5-4CD0-968C-04794753F9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,24 +77,12 @@
     <t>reported_variable_section1_checkbox</t>
   </si>
   <si>
-    <t>Test569 - Test569</t>
-  </si>
-  <si>
-    <t>Test569 - Test569_radio_button</t>
-  </si>
-  <si>
     <t>Economic</t>
   </si>
   <si>
     <t>Economic_radio_button</t>
   </si>
   <si>
-    <t>WordReport-TEST 569 - TEST 569-Economic-</t>
-  </si>
-  <si>
-    <t>ExcelReport-TEST 569 - TEST 569-Economic-</t>
-  </si>
-  <si>
     <t>AAA - mCRPC</t>
   </si>
   <si>
@@ -107,10 +95,22 @@
     <t>ExcelReport-AAA - mCRPC-Economic-</t>
   </si>
   <si>
-    <t>\Testdata\Templates\UtilityOutcome\ECON\Test 569 ECON Reported Variables Utility_manipulated_data.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\UtilityOutcome\ECON\OldImportLogic\ECON_OldImportExpectedResult_manipulated_data.xlsx</t>
+    <t>QOL_and_ECON - UtilityOutcome</t>
+  </si>
+  <si>
+    <t>QOL_and_ECON - UtilityOutcome_radio_button</t>
+  </si>
+  <si>
+    <t>ExcelReport-QOL_and_ECON - UtilityOutcome-Economic-</t>
+  </si>
+  <si>
+    <t>WordReport-QOL_and_ECON - UtilityOutcome-Economic-</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\UtilityOutcome\QOL_ECON_Testing\UtilityOutcome_Feature_Extraction_file_ECON_with_manipulated_data.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\UtilityOutcome\QOL_ECON_Testing\OldImportLogic_ECON\ECON_OldImportExpectedResult_manipulated_data.xlsx</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,16 +476,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -497,7 +497,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -508,7 +508,7 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -526,7 +526,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,16 +569,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
@@ -601,12 +601,12 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/UtilityOutcome_ECON_Data_Testing.xlsx
+++ b/Testdata/UtilityOutcome_ECON_Data_Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BE2B1A-BCF5-4CD0-968C-04794753F9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832AF988-1354-4DB8-AC2D-601B286827C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,18 +83,6 @@
     <t>Economic_radio_button</t>
   </si>
   <si>
-    <t>AAA - mCRPC</t>
-  </si>
-  <si>
-    <t>AAA - mCRPC_radio_button</t>
-  </si>
-  <si>
-    <t>WordReport-AAA - mCRPC-Economic-</t>
-  </si>
-  <si>
-    <t>ExcelReport-AAA - mCRPC-Economic-</t>
-  </si>
-  <si>
     <t>QOL_and_ECON - UtilityOutcome</t>
   </si>
   <si>
@@ -111,6 +99,18 @@
   </si>
   <si>
     <t>\Testdata\Templates\UtilityOutcome\QOL_ECON_Testing\OldImportLogic_ECON\ECON_OldImportExpectedResult_manipulated_data.xlsx</t>
+  </si>
+  <si>
+    <t>Alkermes - Melanoma</t>
+  </si>
+  <si>
+    <t>Alkermes - Melanoma_radio_button</t>
+  </si>
+  <si>
+    <t>ExcelReport-Alkermes - Melanoma-Economic-</t>
+  </si>
+  <si>
+    <t>WordReport-Alkermes - Melanoma-Economic-</t>
   </si>
 </sst>
 </file>
@@ -476,10 +476,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -488,7 +488,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -497,7 +497,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -508,7 +508,7 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0606389C-B75C-4657-B9FD-C008CF805818}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,10 +569,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -581,7 +581,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -601,12 +601,12 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/UtilityOutcome_ECON_Data_Testing.xlsx
+++ b/Testdata/UtilityOutcome_ECON_Data_Testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832AF988-1354-4DB8-AC2D-601B286827C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829B2E40-FF9F-4DCB-A7FD-9E0F504F8E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Population</t>
   </si>
@@ -53,9 +53,6 @@
     <t>ExpectedFilenames</t>
   </si>
   <si>
-    <t>Report-</t>
-  </si>
-  <si>
     <t>ExpectedSourceTemplateFile</t>
   </si>
   <si>
@@ -111,6 +108,12 @@
   </si>
   <si>
     <t>WordReport-Alkermes - Melanoma-Economic-</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-QOL_and_ECON - UtilityOutcome-Economic-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-Alkermes - Melanoma-Economic-2023_</t>
   </si>
 </sst>
 </file>
@@ -430,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,13 +465,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -476,44 +479,44 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -526,7 +529,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,13 +558,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -569,44 +572,44 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/UtilityOutcome_ECON_Data_Testing.xlsx
+++ b/Testdata/UtilityOutcome_ECON_Data_Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829B2E40-FF9F-4DCB-A7FD-9E0F504F8E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986AD032-EFFD-41E9-835C-6613F978A709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewImportLogic" sheetId="1" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>Alkermes - Melanoma_radio_button</t>
   </si>
   <si>
-    <t>ExcelReport-Alkermes - Melanoma-Economic-</t>
-  </si>
-  <si>
     <t>WordReport-Alkermes - Melanoma-Economic-</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>StandardExcelReport-Alkermes - Melanoma-Economic-2023_</t>
+  </si>
+  <si>
+    <t>ExcelReport-Alkermes-Melanoma-Economic-</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -529,7 +529,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,7 +593,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -604,12 +604,12 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/UtilityOutcome_ECON_Data_Testing.xlsx
+++ b/Testdata/UtilityOutcome_ECON_Data_Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986AD032-EFFD-41E9-835C-6613F978A709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F72514-BF03-447C-8525-F258CB415589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewImportLogic" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>QOL_and_ECON - UtilityOutcome_radio_button</t>
   </si>
   <si>
-    <t>ExcelReport-QOL_and_ECON - UtilityOutcome-Economic-</t>
-  </si>
-  <si>
     <t>WordReport-QOL_and_ECON - UtilityOutcome-Economic-</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>ExcelReport-Alkermes-Melanoma-Economic-</t>
+  </si>
+  <si>
+    <t>ExcelReport-QOL_and_ECON-UtilityOutcome-Economic-</t>
   </si>
 </sst>
 </file>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,7 +491,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -511,12 +511,12 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -528,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0606389C-B75C-4657-B9FD-C008CF805818}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -572,10 +572,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -584,7 +584,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -593,7 +593,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -604,12 +604,12 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/UtilityOutcome_ECON_Data_Testing.xlsx
+++ b/Testdata/UtilityOutcome_ECON_Data_Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F72514-BF03-447C-8525-F258CB415589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9786191-A4D3-4BAC-BF67-184C12660D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewImportLogic" sheetId="1" r:id="rId1"/>
@@ -104,16 +104,16 @@
     <t>WordReport-Alkermes - Melanoma-Economic-</t>
   </si>
   <si>
-    <t>StandardExcelReport-QOL_and_ECON - UtilityOutcome-Economic-2023_</t>
-  </si>
-  <si>
-    <t>StandardExcelReport-Alkermes - Melanoma-Economic-2023_</t>
-  </si>
-  <si>
     <t>ExcelReport-Alkermes-Melanoma-Economic-</t>
   </si>
   <si>
     <t>ExcelReport-QOL_and_ECON-UtilityOutcome-Economic-</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-QOL_and_ECON-UtilityOutcome-Economic-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-Alkermes-Melanoma-Economic-2023_</t>
   </si>
 </sst>
 </file>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -516,7 +516,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0606389C-B75C-4657-B9FD-C008CF805818}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,7 +593,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -604,7 +604,7 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
